--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cluster_summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="representatives" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cluster_summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="representatives" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,177 +458,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1483516483516484</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>old, toy, table, just, year, like, year old, kids, chair, great, son, legs</t>
+          <t>screen, laptop, stay, doesn, mode, light, broken, great</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1287284144427002</v>
+        <v>0.1486742424242424</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>screen, laptop, toy, mode, tablet, kid, touch, old, great, good, year, laptop mode</t>
+          <t>old, year, year old, toy, chair, learning, legs, table</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1271585557299843</v>
+        <v>0.1297348484848485</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>working, work, stopped, stopped working, batteries, battery, months, month, return, item, doesn, doesn work</t>
+          <t>tablet, apps, leapfrog, subscription, games, buy, old, learning</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1169544740973312</v>
+        <v>0.125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>missing, used, box, chair, product, item, came, new, legs, received, damaged, christmas</t>
+          <t>box, used, gift, christmas, new, item, toy, bought</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1122448979591837</v>
+        <v>0.09753787878787878</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>screen, light, broken, product, dark, laptop, hard, stay, like, doesn, quality, blue</t>
+          <t>battery, batteries, working, stopped, stopped working, work, changed, changed batteries</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08869701726844584</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>leapfrog, tablet, screen, months, leap, games, warranty, product, charge, leappad, bought, device</t>
+          <t>working, stopped, months, stopped working, month, broke, product, work</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07849293563579278</v>
+        <v>0.07007575757575757</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>tablet, apps, subscription, learning, money, buy, activity, pay, worth, games, like, waste</t>
+          <t>missing, pen, marker, come, pen missing, missing marker, legs, chair</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05886970172684458</v>
+        <v>0.0634469696969697</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>que, la, es, el, muy, en, para, mi, se, lo, le, pero</t>
+          <t>worth, don, like, son, es, don like, ehh better, expensive worth</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04866562009419152</v>
+        <v>0.05965909090909091</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>keyboard, work, working, button, keys, worked, doesn, key, doesn work, mode, broken, didn</t>
+          <t>keyboard, working, buttons, work, button, doesn, doesn work, broken</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04709576138147567</v>
+        <v>0.02178030303030303</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>pen, marker, missing, come, pen missing, book, erasable, missing marker, missing pen, product, package, erasable marker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>57</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04474097331240189</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>low, volume, sound, volume low, work, sounds, audio, doesn work, mute, sound low, doesn, ehh</t>
+          <t>sound, audio, doesn work, doesn, low, mute, work, sound low</t>
         </is>
       </c>
     </row>
@@ -643,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,18 +676,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1818</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Broken 😞.The item and box were damaged!! I thought it was a pretty good fun thing for kids so i got one but it showed up in bad condition and i cant even return it in time :( my poor niece</t>
+          <t>Didn’t last.Lasted 1 year and 3 months and just stopped working. No damage to it, used gently. Disappointing quality.</t>
         </is>
       </c>
     </row>
@@ -716,18 +702,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>238</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Broken 😞.The item and box were damaged!! I thought it was a pretty good fun thing for kids so i got one but it showed up in bad condition and i cant even return it in time :( my poor niece</t>
+          <t>DO NOT BUY!!!.It stopped working after 3 months. That says it all.</t>
         </is>
       </c>
     </row>
@@ -740,66 +728,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1859</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dirty toy, packaging smashed.Packaging looks like it was steeped on and smashed. The toy was actually dirty, and I had to wipe it off because it looked like it was used.  Disappointed, but I don’t have time for an exchange.</t>
+          <t>its a peice of junk.i bought this for my 2 year old grandson it worked great for a week , then it just stopped , a little disappointed i expected it to last at least a month</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B09MW38Z5F</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>279</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dirty toy, packaging smashed.Packaging looks like it was steeped on and smashed. The toy was actually dirty, and I had to wipe it off because it looked like it was used.  Disappointed, but I don’t have time for an exchange.</t>
+          <t>pen was missing.this looks like lots of fun for my 3 year old Grand. The product came delivered without the erasable marker..... Not happy about this.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B09MW38Z5F</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2005</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Toy ok, packaging was dangerous.There was a literal piece of wood in my packaging. It was jagged. Box was barely taped shut as if it was returned and sold immediately. Very disappointed in the quality. It was for my sons birthday, glad he didn’t accidentally open it and get hurt</t>
+          <t>Arrived missing the erasable marker TWICE!.I ordered the product and it arrived with the erasable pen missing. I sent it back asking for a replacement and it came back a second time missing the pen! Will be returning for good this time!</t>
         </is>
       </c>
     </row>
@@ -808,31 +802,33 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B09MW38Z5F</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>331</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Screen issues.The toy is pretty educational in my opinion. My major issue is that the screen stopped staying in place in laptop mode after just a few days.. it just flips halfway around in the white bracket. My 1 year old, who loves the toy, starts crying when trying to use it in laptop mode. So 🤷🏻‍♀️.. not happy about that. I did add some tape so it can stay permanently in laptop mode.</t>
+          <t>Pen missing.Pen missing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -840,23 +836,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1911</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Screen issues.The toy is pretty educational in my opinion. My major issue is that the screen stopped staying in place in laptop mode after just a few days.. it just flips halfway around in the white bracket. My 1 year old, who loves the toy, starts crying when trying to use it in laptop mode. So 🤷🏻‍♀️.. not happy about that. I did add some tape so it can stay permanently in laptop mode.</t>
+          <t>Screen doesn’t stay upright.Like most parents bought this for my child for Christmas. One min it’s fine next screen wouldn’t work like it suppose to. I pulled it apart looked up YouTube as well to see if their was a difference. I notice the company changed out some parts that looked different. What I notice was the hook where you would lift up the laptop up. I believe that pops off and that’s the problem, I could be wrong all I know it’s very annoying problem. So if you do purchase this just be on the look out this might happen n be ready to return or save your receipt.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -864,23 +862,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2073</v>
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Good for learning.Good little learning toy only thing is when it flips to the tablet. It’s frustrating for my two year-old that the screen starts to flip when he tries to have it up in the computer mode.</t>
+          <t>Screen doesn’t stay upright.Like most parents bought this for my child for Christmas. One min it’s fine next screen wouldn’t work like it suppose to. I pulled it apart looked up YouTube as well to see if their was a difference. I notice the company changed out some parts that looked different. What I notice was the hook where you would lift up the laptop up. I believe that pops off and that’s the problem, I could be wrong all I know it’s very annoying problem. So if you do purchase this just be on the look out this might happen n be ready to return or save your receipt.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -888,23 +888,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>493</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Good for learning.Good little learning toy only thing is when it flips to the tablet. It’s frustrating for my two year-old that the screen starts to flip when he tries to have it up in the computer mode.</t>
+          <t>Dim display, screen rotation to loose.You can hardly see the display, it's bright blue with little picture unless you look at it from the side and the screen flips around on its own and doesn't lock in place so it falls forward in "laptop mode". My kid is 1 so she doesn't care but as a parent I'm annoyed.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -912,47 +914,51 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>408</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Loved at first.My daughter quickly fell in love with this toy, as I would take it out on work from home days for her to “work” like mommy. Sadly, the screen does not stay in the laptop position after only a month. I have tried to fix it, but it can only be used as a tablet now which is disappointing.</t>
+          <t>Doesn't work.Just recieved this item and the keyboard does not work. When pressing buttons it doesn't prompt anything on the screen. Not happy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B0BRXPG99Q</t>
+          <t>B06XL1B7QN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Poor Screen quality.Great item to keep kids busy however screen got broken easily...</t>
+          <t>Doesn't work.Just recieved this item and the keyboard does not work. When pressing buttons it doesn't prompt anything on the screen. Not happy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -960,167 +966,181 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1981</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Screens are hard to view..The media could not be loaded.I ordered 2 of these for my twin 2 year olds. One screen is very dim and hard to see. The other works better but still could be brighter and not so grainy.I went to get a refund on the bad one but in order for me to return, it will cost me $7 to have UPS pick up. I bought these for $14.99. I ended up buying another one but this time it cost me $18.99. Kind of disappointed in the quality but I like what these little laptops are trying to teach my girls.</t>
+          <t>Not Happy with the product.This keyboard didn’t work when we used it or the  first time</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B0BRXPG99Q</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>401</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Screens are hard to view..The media could not be loaded.I ordered 2 of these for my twin 2 year olds. One screen is very dim and hard to see. The other works better but still could be brighter and not so grainy.I went to get a refund on the bad one but in order for me to return, it will cost me $7 to have UPS pick up. I bought these for $14.99. I ended up buying another one but this time it cost me $18.99. Kind of disappointed in the quality but I like what these little laptops are trying to teach my girls.</t>
+          <t>Fun but not Durable.My 4 year old received this for Christmas. I love the way it works and how it teacher. But it’s a kids toy which means it gets dropped more than a normal item. We’ve only had it 3 weeks &amp; part of the screen already is not working. So my son is getting frustrated he can’t use the toy properly :(</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B0BRXPG99Q</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The screen stopped working after a month.Super sad because my daughter received this as a birthday gift and within a month the screen stopped working and is super dim and barely visible. Worked great for a month and she loved it, so bummed it broke so quickly.</t>
+          <t>Very annoying !.Wanted to love this for my 2 1/2 year old but had to return because it is so annoying! We tend not to buy the toys that constantly "bark" at you to play with them but even so we gave this a try. In theory the table has some great features, it's sturdy, cute stool, educational mats are great. BUT if your toddler wants to take their hand and run it all over the touch portion, it's  so sensitive it will just start rambling on and on whatever they touch. Gave me a headache fast, had to return ASAP!</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>245</v>
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Screen is too light to see..My grandson is not interested in this product.  He can't see the screen.  It's too light.</t>
+          <t>Didn’t hold toddler attention.I got this on a warehouse deal and I had high hopes but my toddler tired of the electronic features super quick. Maybe older kids would like it more? Now she just uses is like a normal desk and the seat is a bit flimsy. I like it but I don’t know that I would pay that much for it again.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B01FVS6V9Y</t>
+          <t>B07PLG93NS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>901</v>
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Esta bien.Que el producto no llegó completo</t>
+          <t>Slow and Unresponsive.Obviously we purchased this item for educational purposes. The tablet seemed to have so much potential. It is impossible for our child to run any of the programs. Either they don't load, or the whole thing just freezes, which is pretty disappointing considering the academy portion of the tablet is a subscription based service, and it doesn't work 75% of the time. Not only is it frustrating for us parents, but our child has basically lost all interest because of how poorly it runs.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B0BRXPG99Q</t>
+          <t>B07PLG93NS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No me funcionó..NO ERA LO QUE ESPERABA. LA DEVOLVÍ. YO LA NECESITABA PARA ALGUIEN QUE NO PUEDE HABLAR PARA QUE SE COMUNICARA, PERO NO TRABAJA.</t>
+          <t>Kids-ready tablet, but expensive &amp; outdated.I was very excited about this LeapFrog LeapPad tablet for our son to play with. And he does enjoy playing with it. However, for $160 I would only recommend this to someone with no technology inclination whatsoever who wants a ready to go technology toy.Here's why: LeapPad is very easy to set up, comes preloaded with a handful of games and is generally "kid proof" right out of the box.Unfortunately, that's where positives end. The 7" screen is of such poor quality that you have to be looking at it perfectly straight on to avoid distortion. Oh and it's worse in portrait mode than landscape and also worse at higher brightness. The device also runs on top of a very old "neutered" version of Android 4.4. It came out ~6 years ago and Google stopped releasing updates for it (including key *security* updates) almost 5 years ago. Given that this device relies on WiFi connectivity and will likely travel with the child to various WiFi networks (e.g. restaurants, hotels, airports, etc) this device has decent potential to get infected with something nasty and then spread it to other systems. I work in IT Security and a device running Android 4.4 would never be allowed on a corporate network these days.LeapPad does have a web browser and a couple of other regular tablet features in "parent" mode. They are pretty mediocre by today's standards. It also does include a handful of games and they're quite fun but it's pretty clear from using the device that it's really not going to entertain kids for very long and they're really trying to get you to sign up for LeapPad academy ($9.99/mth or a bit less for a yearly subscription).Now, say you accept this cost as the games are quite good. In that case, LeapFrog academy supports a multitude of devices, including Amazon Fire tablets. You can get a new Amazon Fire 7 tablet with a much better screen, dimensions and running a much newer version of Android (7.1 I believe) for $69.99. That $100 you're saving can buy you a super sturdy case for it and almost cover a year of LeapPad academy! And no offense to LeapFrog, but I have a lot of faith in Amazon's application &amp; device security practices. It's going to be much better at being a tablet than LeapPad in every way but is still not running a full version of Android. You can get that full version of Android in a Samsung Galaxy Tab E lite or in a clearance model of a Samsung Galaxy tablet, likely running Android 8 or newer for around $140 - still cheaper than LeapPad. Want to spend even less? Take a look at some well rated "no name" tablets - they can be quite decent.You would then have to set up parental controls on either Amazon Fire or another tablet to make it kid-safe. This is relatively easy to do by following online tutorials but I recognize that this still may be an issue for folks and thus would be the main situation where LeapPad comes out on top.As for me, even though we have this LeapPad already, I don't want it on my Wi-Fi network. I've put it on my guest network for now but we'll likely go down the Amazon Fire 7 route in the future. And I'm thinking that LeapFrog Academy subscription will be worth the money in a few months to get our son to interact with (and learn from) some very well-made educational games!</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B07PLG93NS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>288</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Impresentable.El producto está ok, no esperaba más de lo que llegó, pero el empaque una vergüenza, menos mal que era para mi nena y no para regalar por ahí, la caja toda rota, emparchada con cinta, una desprolijidad</t>
+          <t>Very dangerous features!!.I think it COULD have been a good product. We really like leapfrog, so this tablet was very disappointing. There is a full internet browser on this thing that kids can access AND a camera. If you are avoiding a regular tablet based on safety concerns, do not buy this product. Why on earth does this thing have full internet access? HUGE miss on Leapfrog’s part. Also, you are prompted upon startup to purchase the Academy membership. Amazon offered a partial refund to keep the tablet and I declined. Absolutely not worth it. Protect the children and don’t buy these kinds of things.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1130,21 +1150,23 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
-        <v>1868</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Impresentable.El producto está ok, no esperaba más de lo que llegó, pero el empaque una vergüenza, menos mal que era para mi nena y no para regalar por ahí, la caja toda rota, emparchada con cinta, una desprolijidad</t>
+          <t>It stopped working 6 months after gifting it.I was so happy with this product and my toddler loved it but it broke just 6 months after I gave it to her. She never dropped it, or miss used it. It simply stopped working completely! I have changed batteries twice and nothing. It’s such a disappointment. Not sure if I got a faulty one but electronics should be lasting at least 10 years, not 6 months :(</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1152,47 +1174,51 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1951</v>
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cumple su función.No está mal.</t>
+          <t>It stopped working 6 months after gifting it.I was so happy with this product and my toddler loved it but it broke just 6 months after I gave it to her. She never dropped it, or miss used it. It simply stopped working completely! I have changed batteries twice and nothing. It’s such a disappointment. Not sure if I got a faulty one but electronics should be lasting at least 10 years, not 6 months :(</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B06XL1B7QN</t>
+          <t>B07PLG93NS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1978</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Was great until it wasn’t.My toddler used this a handful of times and seemed to enjoy it. It is a cute toy and I like that it encourages learning. But, it did stop working after a month and a half of only being used a few times. Very disappointing!</t>
+          <t>Battery does not stay charged!.Very disappointed! It will not stay charged at all and has hardly been used ever. I fully charge it and then my daughter will use it once for maybe 20-30 minutes and turn it off and next time we go to use it battery is fully dead!The first few times I kept thinking maybe she used it when I did not see or something, but no! And since I got it for a Christmas present I am sure just more wasted money as seems to happens with most things purchased now days.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1200,23 +1226,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>398</v>
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Was great until it wasn’t.My toddler used this a handful of times and seemed to enjoy it. It is a cute toy and I like that it encourages learning. But, it did stop working after a month and a half of only being used a few times. Very disappointing!</t>
+          <t>Mala compra.El producto está en idioma Inglés, no son específicos</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1226,21 +1254,23 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>1867</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Not great.Cheap and graphics are horrible. Not the worst thing I’ve ever bought but don’t recommend. My 2 1/2 year old granddaughter put down after 10 minutes and never what’s to play with it again</t>
+          <t>Mala compra.El producto está en idioma Inglés, no son específicos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1248,758 +1278,172 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>287</v>
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Not great.Cheap and graphics are horrible. Not the worst thing I’ve ever bought but don’t recommend. My 2 1/2 year old granddaughter put down after 10 minutes and never what’s to play with it again</t>
+          <t>Not interesting.Child wasn't interested</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B01FVS6V9Y</t>
+          <t>B06XL1B7QN</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>1084</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Please read parents.Really cute and the original alphabet table is great. She loves the games and it is very educational. The table and chair are sturdy and thick plastic so it should last a long time.&gt;&gt;&gt; Unfortunately the cards to change activities are so touchy it’s hard and frustrating for a toddler to use. She will go to press a button and the slight pressure from her forearm will set off like 5 other buttons, causing her to get the activities wrong or be confused because there’s too many sounds at once.</t>
+          <t>Toy ok, packaging was dangerous.There was a literal piece of wood in my packaging. It was jagged. Box was barely taped shut as if it was returned and sold immediately. Very disappointed in the quality. It was for my sons birthday, glad he didn’t accidentally open it and get hurt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B09MW38Z5F</t>
+          <t>B06XL1B7QN</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>733</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>pen was missing.this looks like lots of fun for my 3 year old Grand. The product came delivered without the erasable marker..... Not happy about this.</t>
+          <t>Toy ok, packaging was dangerous.There was a literal piece of wood in my packaging. It was jagged. Box was barely taped shut as if it was returned and sold immediately. Very disappointed in the quality. It was for my sons birthday, glad he didn’t accidentally open it and get hurt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B09MW38Z5F</t>
+          <t>B0BRXPG99Q</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="n">
-        <v>685</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The Marker is missing.Received the learning book quick but the marker pen is missing. Unhappy with the order!!</t>
+          <t>Used Item delivered.The product that arrived looked like it is a used toy, the buttons all worn out.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B09MW38Z5F</t>
+          <t>B01FVS6V9Y</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>699</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Arrived missing the erasable marker TWICE!.I ordered the product and it arrived with the erasable pen missing. I sent it back asking for a replacement and it came back a second time missing the pen! Will be returning for good this time!</t>
+          <t>Doesn’t have a sound.Doesn’t work.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B09MW38Z5F</t>
+          <t>B06XL1B7QN</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>713</v>
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Missing the marker pen.I did not receive the marker pen in the LeapFrog Activity Book</t>
+          <t>Sound doesn't work.Computer works, the sound Does NOT work ... first time using it</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B09MW38Z5F</t>
+          <t>B06XL1B7QN</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
-        <v>683</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pen is missing.We received the product without the pen</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sound is very low not happy with that.The sounds are very low</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>450</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sound is very low not happy with that.The sounds are very low</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1815</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Product defective.The sound did not work even after changing the battery several times. I was unable to exchange product for a new one and instead am now forced to return it, wait for my money to be refunded and then maybe re-order it- with no guarantee that the new product will even work.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>6</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>235</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Product defective.The sound did not work even after changing the battery several times. I was unable to exchange product for a new one and instead am now forced to return it, wait for my money to be refunded and then maybe re-order it- with no guarantee that the new product will even work.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>B01FVS6V9Y</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>906</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Doesn’t have a sound.Doesn’t work.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1520</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Misleading product.Once we received this device, it seemed very modern and sturdy, new and improved since the older version we had. However, the "free" apps were a total joke, not age appropriate for my 2 year old, and not fun. Without a subscription there is literally no option to download more free apps. Everything was for sale $5-25 each, and a subscription is way more than I'd be willing to pay year after year as mu toddler grows up. Save your money and buy a standard tablet with age appropriate apps, that range from free to $5. Put kids mode on. Cheaper and better, no subscription needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1498</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Waste of money.We purchased this for my step sons 3rd bday. It is not user friendly. It comes with some apps already and I thought would be plenty. It is not. You have to have a subscription. Honestly, save your money and by a tablet or Amazon fire. It's way more cost effective and there are free learning apps. Then you can put parent lock on it to keep them from going to other things.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1403</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Don’t Buy!!!.I bought this thinking oh it’ll be so great will help my son with learning apps and educational games.Nope, it requires you to purchase all games from a leappad learn store all of the games being over $10-25+ this is such a hack/fraud. It’s also very outdated technology. You’re better off buying the kids fire Amazon tablet on a deal for $70 than this thing. It’s absolutely junk.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1401</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Worst product I’ve ever purchased.DO NOT BUY THIS PRODUCT. Does not hold a charge,  its practically unusable, the shopping is right on the front screen so your child is constantly trying to buy and access apps, in order for them to play anything you have to buy a monthly plan. It signs them out of their account. I hate this thing, and I would never ever recommend it to anyone at all, in any capacity. Total garbage.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Not worth the money.I would not purchase this again. I wish I would’ve known prior to purchasing it. I bought it for my 2 1/2 year old. Nothing is age appropriate for her, and the apps they offer about all cost $20+. You cannot download any outside apps except what they offer. It is a waste of money.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>8</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1784</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Product not working.I'm not pleased with this item bought it for my daughter's birthday now open it and the keyboard is not working. She is only able to use it in tablet mode.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>8</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>204</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Product not working.I'm not pleased with this item bought it for my daughter's birthday now open it and the keyboard is not working. She is only able to use it in tablet mode.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>8</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>184</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Doesn't work.Just recieved this item and the keyboard does not work. When pressing buttons it doesn't prompt anything on the screen. Not happy</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>8</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1764</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Doesn't work.Just recieved this item and the keyboard does not work. When pressing buttons it doesn't prompt anything on the screen. Not happy</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>8</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1847</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Broke after less than a month.My daughter got this for her birthday. Used it less than 1 month and the keyboard is not working.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>9</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B01FVS6V9Y</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>903</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Doesn’t work.Changed batteries a few times and nothing. I purchased in October but gifted for Christmas… just now opening this due to so many gifts but does not work at all. Return window closed January 31 smh. Had to give a star for the review, however my child was excited for nothing</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>9</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B01FVS6V9Y</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>922</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Stopped working.Bought this for my daughter for Christmas and she was too young for it so I gave it to her around June and it already stopped working. I changed the batteries and that didnt work</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>9</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B01FVS6V9Y</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>985</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Stopped working!.This has been number one favorite of my 2 year old daughter. But all of a sudden it stopped working after 4 month of purchase.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>9</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1439</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Stopped working once it was past the return date.I bought this for my son right before Christmas. It started glitching pretty early on, but would usually work again if I just pressed the power button on top and rebooted it. But after 2 months, it now will not turn on at all after being fully charged. Definitely not worth the money I spent. Would not recommend.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>9</v>
-      </c>
-      <c r="B51" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1917</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>It stopped working 6 months after gifting it.I was so happy with this product and my toddler loved it but it broke just 6 months after I gave it to her. She never dropped it, or miss used it. It simply stopped working completely! I have changed batteries twice and nothing. It’s such a disappointment. Not sure if I got a faulty one but electronics should be lasting at least 10 years, not 6 months :(</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>10</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1851</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Junk.My toddler opened this Christmas morning. The very next day you have to turn it off then back on to get the screen to work. Very disappointed because Leapfrog is usually a very top of the line brand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>10</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>271</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Junk.My toddler opened this Christmas morning. The very next day you have to turn it off then back on to get the screen to work. Very disappointed because Leapfrog is usually a very top of the line brand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>10</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B07PLG93NS</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1584</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Very disappointing.We had 2 of the older style leap pads and loved them, used for years through multiple kids (still have one that is about 7 years old that works better in every way than the new ones) Bought two of these and the battery life on both was less than an hour. Had them replaced and one of replacements would not charge so got yet another. Battery life is barely one hour on it (the other is about one and a half) and within two months it is no longer charging. This went from being an item I recommended to everyone to one I would suggest avoiding. The games are great so it is very disappointing that the actual tablet is so poorly built.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>10</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>260</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Leapfrog is the worst.My son's laptop screen stopped working with interacting. I contacted the support he's had this just a few months and they wouldn't replace the defaulted laptop. Truly sad definitely not purchasing leapfrog again.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>10</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B06XL1B7QN</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1840</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Leapfrog is the worst.My son's laptop screen stopped working with interacting. I contacted the support he's had this just a few months and they wouldn't replace the defaulted laptop. Truly sad definitely not purchasing leapfrog again.</t>
+          <t>Sound doesn't work.Computer works, the sound Does NOT work ... first time using it</t>
         </is>
       </c>
     </row>
